--- a/Grid calculations.xlsx
+++ b/Grid calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Pink Gargoyle\work\SkillCrush\designer-files\the-pink-gargoyle\gridGimp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBDEC7B-AF0C-4EC4-990A-3739BA1AA3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF2480F-21E2-4F63-AF33-C0E329762F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="0" windowWidth="13500" windowHeight="14865" xr2:uid="{06FC2E19-03AE-45D3-A595-4A832E0E8A94}"/>
+    <workbookView xWindow="18495" yWindow="0" windowWidth="10410" windowHeight="15585" xr2:uid="{06FC2E19-03AE-45D3-A595-4A832E0E8A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,7 +345,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +671,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -677,32 +679,32 @@
     <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="14"/>
-      <c r="E2" s="1" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="13"/>
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>SUM(A7*2)</f>
         <v>0</v>
       </c>
@@ -711,11 +713,11 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>SUM($A$14)</f>
         <v>0</v>
       </c>
@@ -724,16 +726,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="e">
+      <c r="F4" s="16" t="e">
         <f>SUM(F3+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -742,11 +744,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="e">
+      <c r="F5" s="16" t="e">
         <f>SUM(F4+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -761,11 +763,11 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="17" t="e">
+      <c r="F6" s="16" t="e">
         <f>SUM(F5+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -775,15 +777,15 @@
     </row>
     <row r="7" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="C7" s="27" t="e">
+      <c r="C7" s="16" t="e">
         <f>SUM((A4-((A14+C14)+(A10*C10)))/A7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="17" t="e">
+      <c r="F7" s="16" t="e">
         <f>SUM(F6+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -792,11 +794,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="17" t="e">
+      <c r="F8" s="16" t="e">
         <f>SUM(F7+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -811,11 +813,11 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="17" t="e">
+      <c r="F9" s="16" t="e">
         <f>SUM(F8+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -829,11 +831,11 @@
         <v>-1</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="17" t="e">
+      <c r="F10" s="16" t="e">
         <f>SUM(F9+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -842,11 +844,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="17" t="e">
+      <c r="F11" s="16" t="e">
         <f>SUM(F10+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -855,11 +857,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="17" t="e">
+      <c r="F12" s="16" t="e">
         <f>SUM(F11+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -874,11 +876,11 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="17" t="e">
+      <c r="F13" s="16" t="e">
         <f>SUM(F12+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -887,13 +889,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="27"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="e">
+      <c r="F14" s="16" t="e">
         <f>SUM(F13+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -902,11 +904,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="16" t="e">
         <f>SUM(F14+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -922,11 +924,11 @@
       <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F16" s="17" t="e">
+      <c r="F16" s="16" t="e">
         <f>SUM(F15+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -939,16 +941,15 @@
         <f>SUM(A4-(A14+C14))</f>
         <v>0</v>
       </c>
-      <c r="B17" s="9"/>
       <c r="C17" s="4">
         <f>SUM(C4)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="17" t="e">
+      <c r="F17" s="16" t="e">
         <f>SUM(F16+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -957,14 +958,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="17" t="e">
+      <c r="F18" s="16" t="e">
         <f>SUM(F17+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -973,16 +973,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" s="17" t="e">
+      <c r="F19" s="16" t="e">
         <f>SUM(F18+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -991,17 +990,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="e">
+      <c r="A20" s="16" t="e">
         <f>SUM(C7+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="17" t="e">
+      <c r="F20" s="16" t="e">
         <f>SUM(F19+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1010,11 +1009,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1">
         <v>19</v>
       </c>
-      <c r="F21" s="17" t="e">
+      <c r="F21" s="16" t="e">
         <f>SUM(F20+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1023,16 +1022,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="17" t="e">
+      <c r="F22" s="16" t="e">
         <f>SUM(F21+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1041,18 +1040,18 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="17" t="e">
+      <c r="F23" s="16" t="e">
         <f>SUM(F22+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1061,18 +1060,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="1">
         <v>22</v>
       </c>
-      <c r="F24" s="17" t="e">
+      <c r="F24" s="16" t="e">
         <f>SUM(F23+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1081,18 +1080,18 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="17" t="e">
+      <c r="F25" s="16" t="e">
         <f>SUM(F24+$C$10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1101,11 +1100,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1">
         <v>24</v>
       </c>
-      <c r="F26" s="17" t="e">
+      <c r="F26" s="16" t="e">
         <f>SUM(F25+$C$7)</f>
         <v>#DIV/0!</v>
       </c>
